--- a/output/fit_clients/fit_round_222.xlsx
+++ b/output/fit_clients/fit_round_222.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1516984100.444339</v>
+        <v>1719002754.630135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08031063215306089</v>
+        <v>0.07489728943543476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02926910477111343</v>
+        <v>0.04053818512984154</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>758491980.8891103</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1900165714.852696</v>
+        <v>1660619380.903602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1296801670826376</v>
+        <v>0.1419150993719305</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03372318308657459</v>
+        <v>0.04039615891675672</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>950082882.006477</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3583430147.3106</v>
+        <v>4762350490.11783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12722705364342</v>
+        <v>0.1265854632343864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02761939211723167</v>
+        <v>0.03116004821049263</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1791715058.319064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3338191066.080497</v>
+        <v>3078072565.043545</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070435276005658</v>
+        <v>0.102709647159868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03792069761998402</v>
+        <v>0.03928945861042426</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1669095580.510502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2565510567.054373</v>
+        <v>2541073728.044096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1384651657448145</v>
+        <v>0.1228808491774468</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0517118842859799</v>
+        <v>0.03506891803195406</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1282755251.905235</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1927827257.773663</v>
+        <v>2778050565.156637</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07226220423339519</v>
+        <v>0.08815674261956009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04042595926688827</v>
+        <v>0.0389785061492979</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>68</v>
-      </c>
-      <c r="J7" t="n">
-        <v>963913696.9494675</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2792732942.997308</v>
+        <v>3781444732.655126</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1407765283408811</v>
+        <v>0.1694113361982387</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02311249779948505</v>
+        <v>0.03305250553367894</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1396366507.808058</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2091939123.014622</v>
+        <v>1626564180.134494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1987792550498131</v>
+        <v>0.1628971530712316</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03612843121986273</v>
+        <v>0.03662527906594863</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1045969575.354145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4386643424.039372</v>
+        <v>5565494481.520192</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1465145129779098</v>
+        <v>0.1783540991331767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05287785449775201</v>
+        <v>0.04015601747379367</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>93</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2193321763.831725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3804043844.43574</v>
+        <v>3090436977.040678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1850880127631699</v>
+        <v>0.1676604329239679</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04080168076972084</v>
+        <v>0.04715021507162024</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>92</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1902021921.187482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2464256128.024905</v>
+        <v>2510185339.575638</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1279075443723414</v>
+        <v>0.1825776528364281</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03347094743891618</v>
+        <v>0.04553838616384314</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>77</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1232128032.962588</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3273999445.445831</v>
+        <v>4799349426.923611</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1006431152245229</v>
+        <v>0.0640855062804019</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02759495679664405</v>
+        <v>0.0222140233751884</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>74</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1636999814.522364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2842922072.705259</v>
+        <v>3699633281.287049</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1709062476101859</v>
+        <v>0.1164343217831805</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04235037050322597</v>
+        <v>0.03787565945609013</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>71</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1421461082.155973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1145672095.803761</v>
+        <v>1397977694.595258</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08312020554847174</v>
+        <v>0.08648972522994164</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04143690218727773</v>
+        <v>0.03815192705738839</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>572836053.0494343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2589389579.54097</v>
+        <v>2436158391.387573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09897393433376826</v>
+        <v>0.1015483847339552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04330558081785671</v>
+        <v>0.04062947103253335</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1294694812.583505</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3663020526.563987</v>
+        <v>3378769200.785226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1592790484275107</v>
+        <v>0.1538653244926887</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05020250516721671</v>
+        <v>0.04868684942342996</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1831510314.535488</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3317865187.557111</v>
+        <v>3020362746.210083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1777637993003423</v>
+        <v>0.1262556375305313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02903758629048114</v>
+        <v>0.02993230417479573</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>73</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1658932600.973432</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293271650.024681</v>
+        <v>1057982373.995819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1685170746618816</v>
+        <v>0.1618685434204561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02146031220324937</v>
+        <v>0.02425335510976448</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>646635925.6470574</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2336312893.874653</v>
+        <v>1823648843.350995</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329165556505222</v>
+        <v>0.1080599114810795</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0244469554403559</v>
+        <v>0.03050748568509879</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1168156437.430785</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1965202507.594494</v>
+        <v>1707823552.10817</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09416868833302069</v>
+        <v>0.09850074858068127</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03365486218946024</v>
+        <v>0.03459040787237373</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>982601293.06256</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2855506101.826343</v>
+        <v>3064584546.762911</v>
       </c>
       <c r="F22" t="n">
-        <v>0.121273408685494</v>
+        <v>0.1305519437653469</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04567442861791911</v>
+        <v>0.05610996794013316</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1427753121.083794</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1276439034.35642</v>
+        <v>946000916.4411952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1518937699833292</v>
+        <v>0.1855538098120333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04425282477828047</v>
+        <v>0.03829941364498924</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>638219540.7673333</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3048075283.463398</v>
+        <v>3335774082.039766</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1371933766999344</v>
+        <v>0.1247302101920144</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02574320128192686</v>
+        <v>0.03306014311866238</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>65</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1524037673.704961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1205914608.380064</v>
+        <v>1357172425.501885</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1166449533033636</v>
+        <v>0.08252463687793078</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02572800070822737</v>
+        <v>0.02717643425868635</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>602957320.7767342</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1380260214.960181</v>
+        <v>971572243.2820323</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07815757951307127</v>
+        <v>0.1108872144079571</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02710932190107019</v>
+        <v>0.03639542146866451</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>690130172.6019751</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3291725741.769535</v>
+        <v>4537389355.836899</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1516981269245248</v>
+        <v>0.1578829651248158</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02134375708382658</v>
+        <v>0.02413941651378514</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>53</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1645862916.203074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2964487415.325331</v>
+        <v>2414278251.643034</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1301301554662019</v>
+        <v>0.1258084501906769</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04036401718234762</v>
+        <v>0.04187580839459876</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1482243715.7826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4719859516.702059</v>
+        <v>3725342770.476201</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1169452076101047</v>
+        <v>0.0931347932093608</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04673866409459256</v>
+        <v>0.03412910503673473</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2359929725.276594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1487581152.827386</v>
+        <v>2145537267.698172</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1329728751640535</v>
+        <v>0.1078202595609593</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03448447684598555</v>
+        <v>0.03432627692736692</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>743790555.5295134</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>939176987.0621045</v>
+        <v>980426189.597361</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07449191384344968</v>
+        <v>0.07172505615805985</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04417693433285608</v>
+        <v>0.03515587397000737</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>469588506.3819123</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1379646252.170448</v>
+        <v>1155747781.477097</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08669981740742237</v>
+        <v>0.1050949579138212</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0248027120541083</v>
+        <v>0.02587058409867119</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>689823169.467968</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2165723692.839211</v>
+        <v>2697081052.504686</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1711801990402037</v>
+        <v>0.1432683370506347</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05181044780138923</v>
+        <v>0.0608094721391461</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1082861913.074859</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1156192537.278793</v>
+        <v>1362405039.856229</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1132230621180329</v>
+        <v>0.07875619489188161</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02410054993170376</v>
+        <v>0.01955758696644118</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>578096280.8478373</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1230012608.126218</v>
+        <v>1060792324.401987</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1165668742083697</v>
+        <v>0.1184158515097494</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02761355919470251</v>
+        <v>0.04448061386872359</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>615006272.2010919</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2518175229.095863</v>
+        <v>1975378813.475591</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1325015579144172</v>
+        <v>0.1100868467768057</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01961157486648185</v>
+        <v>0.0284049237106481</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>56</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1259087635.053682</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2670414907.238913</v>
+        <v>2554816283.464657</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1057808088484877</v>
+        <v>0.09105490129980376</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03260301555170179</v>
+        <v>0.03762155675890493</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>57</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1335207573.141227</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1866557275.203239</v>
+        <v>1811148222.094872</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07363030562778465</v>
+        <v>0.07545868937600969</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03122512638735236</v>
+        <v>0.03336399316478556</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>933278635.0640789</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1776293746.825328</v>
+        <v>1894447786.176404</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1731754302199828</v>
+        <v>0.1170304109052654</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03227870936636988</v>
+        <v>0.02974567143144541</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>888146901.8878421</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1492962105.543428</v>
+        <v>1652299320.034368</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1226820812689252</v>
+        <v>0.09979852971354554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0600533095481768</v>
+        <v>0.05418683992771197</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>746481020.6983279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1885015238.906445</v>
+        <v>1982223540.664475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1104817815424823</v>
+        <v>0.1596547752841787</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04574383761099863</v>
+        <v>0.02859037813962535</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>942507704.9654323</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3979340964.182729</v>
+        <v>3174074898.329703</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08179043100569668</v>
+        <v>0.08831956741021872</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03845060617867747</v>
+        <v>0.03496688918120121</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1989670509.916723</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2562745358.287258</v>
+        <v>2109164488.461694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1920778347252448</v>
+        <v>0.1884991888568781</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0235351967652863</v>
+        <v>0.01759410379039415</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>77</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1281372721.488391</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1503184667.89282</v>
+        <v>1492584117.122276</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08768453934401167</v>
+        <v>0.06853983856337105</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03638913275090246</v>
+        <v>0.02516714641684737</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>751592341.1466146</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2433504785.955012</v>
+        <v>1620809502.775025</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1302364033763069</v>
+        <v>0.1325759468116096</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05319905489815187</v>
+        <v>0.04210229249970631</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1216752427.552236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4479748623.520481</v>
+        <v>3973122141.609851</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1218954498726349</v>
+        <v>0.1668998682990323</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05032188536193166</v>
+        <v>0.03999233707642652</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>79</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2239874308.757097</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3379138034.070491</v>
+        <v>5089677406.481889</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1477099178701463</v>
+        <v>0.157497691207132</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04646303553953483</v>
+        <v>0.04060315537442409</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>59</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1689568980.96956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3987693504.695832</v>
+        <v>3896044243.425985</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07265786969122062</v>
+        <v>0.0995153022726616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.032873892779609</v>
+        <v>0.02963639801228992</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1993846787.398331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1444545491.576167</v>
+        <v>1824800515.04886</v>
       </c>
       <c r="F49" t="n">
-        <v>0.12930616915731</v>
+        <v>0.1869199361897889</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03226030011231602</v>
+        <v>0.02959954338557819</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>722272786.4278241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3900649585.756708</v>
+        <v>2551390615.730762</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1785672182761401</v>
+        <v>0.1090229527007187</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04894466451080272</v>
+        <v>0.05255534165447551</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>76</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1950324788.622223</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1402222138.37223</v>
+        <v>1394114642.103794</v>
       </c>
       <c r="F51" t="n">
-        <v>0.16468472165509</v>
+        <v>0.1750808342348203</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04166060719595196</v>
+        <v>0.04133793854487303</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>701111087.9563582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3872057875.313732</v>
+        <v>4373702179.879832</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1142033925700162</v>
+        <v>0.09646858261168592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03868627049766114</v>
+        <v>0.03922699044281619</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>91</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1936029001.656168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3234767152.610663</v>
+        <v>3749978868.076078</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1667883657078024</v>
+        <v>0.176558849321625</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03544372093826911</v>
+        <v>0.03468581311501397</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>64</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1617383592.536717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4204364187.473483</v>
+        <v>4049616169.651659</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1495197080276138</v>
+        <v>0.1085783476843451</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04727238493576035</v>
+        <v>0.03866366013689834</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>73</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2102182173.824974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3657046246.638816</v>
+        <v>3558082537.013357</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1434754113334729</v>
+        <v>0.2111373071457462</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02819331079318205</v>
+        <v>0.02263621660405226</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1828523083.10548</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1489198599.690765</v>
+        <v>1695666232.321631</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1327148525709565</v>
+        <v>0.1516102077086815</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05126032427924887</v>
+        <v>0.04211861168971123</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>744599343.7081966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3200515945.06138</v>
+        <v>4386773720.070679</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1610848317263719</v>
+        <v>0.1192456151851876</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02330685531574527</v>
+        <v>0.02386489763187905</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>70</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1600257993.759103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1489697992.808305</v>
+        <v>1866408566.847305</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1939522338327231</v>
+        <v>0.1951094450104899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02536270410488578</v>
+        <v>0.03423696910412232</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>744849028.460447</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3355902800.733123</v>
+        <v>5141401916.997345</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08373980077368079</v>
+        <v>0.09035715936709354</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03939450336552804</v>
+        <v>0.04207254068147789</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>61</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1677951407.350158</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3740521714.136168</v>
+        <v>2630526861.686495</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1470864988753115</v>
+        <v>0.136993800227639</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02902231963320836</v>
+        <v>0.0263117875608724</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1870261005.080529</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2616402197.077597</v>
+        <v>3257877732.930935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1404318323489608</v>
+        <v>0.1345053386709039</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02857698660874065</v>
+        <v>0.02460509929328482</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>77</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1308201115.161752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1837550321.458741</v>
+        <v>1604631845.486513</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1343664964807824</v>
+        <v>0.1210325044093712</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04000504889884052</v>
+        <v>0.03581153572202404</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>918775194.4120202</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4733487959.61643</v>
+        <v>3457794380.486249</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07476935264906734</v>
+        <v>0.09545716425277868</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03319208491420453</v>
+        <v>0.03510202904438545</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2366744009.436458</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4065279300.673911</v>
+        <v>5278399506.523028</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1331269205365431</v>
+        <v>0.1649624978204403</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02383598796451625</v>
+        <v>0.03083032613135185</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>69</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2032639690.776702</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5984103076.497701</v>
+        <v>5120386818.181864</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1145130028619927</v>
+        <v>0.1334329567007444</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01982741367137481</v>
+        <v>0.02254296618318679</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>80</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2992051438.430422</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3920532891.24965</v>
+        <v>4629924529.493795</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1288984209623566</v>
+        <v>0.1085789875391597</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03915596472738243</v>
+        <v>0.03198964243564275</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>64</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1960266414.931654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3350983376.422832</v>
+        <v>3077799686.701159</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09753648087874432</v>
+        <v>0.08148970172133226</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03603539206159563</v>
+        <v>0.04834433775847786</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1675491676.752623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4631498703.587525</v>
+        <v>4844256682.63909</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603328051000775</v>
+        <v>0.1420426248119269</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0447011155972365</v>
+        <v>0.0507801863337266</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2315749385.844244</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2081607467.460154</v>
+        <v>2487108439.2797</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1491180615064406</v>
+        <v>0.1683776035125005</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0460470040202297</v>
+        <v>0.03831353693164632</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1040803749.198945</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2976043399.790514</v>
+        <v>2930061885.213398</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07294254007164834</v>
+        <v>0.07169282263103367</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03034958815566355</v>
+        <v>0.03715390499461976</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>63</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1488021675.320651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4118698197.014846</v>
+        <v>3663296311.783171</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1526530228867534</v>
+        <v>0.148696956360928</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0224936726833704</v>
+        <v>0.02592485603596685</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>81</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2059349138.435941</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2125243393.337743</v>
+        <v>1666788983.133503</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08782495435104497</v>
+        <v>0.06840966757977503</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04896593345795745</v>
+        <v>0.05250729962712369</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1062621622.796497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2980412585.948169</v>
+        <v>2212103266.621959</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07290379014770028</v>
+        <v>0.09614844069940839</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03415497098401087</v>
+        <v>0.04210547578508578</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>84</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1490206290.745466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2847388193.251703</v>
+        <v>3890726975.284339</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1427633448855278</v>
+        <v>0.137560729926</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02462245850904412</v>
+        <v>0.0311878432621456</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>76</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1423694175.216792</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2230821354.492959</v>
+        <v>2302238711.717641</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1186525870326467</v>
+        <v>0.1036927201726727</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03265216805950026</v>
+        <v>0.02960265835372696</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1115410619.777447</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3997865465.615098</v>
+        <v>3243925647.914004</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1046762141370104</v>
+        <v>0.09770431175612045</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02136615062885978</v>
+        <v>0.03272949586546856</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1998932717.436851</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1405640161.691512</v>
+        <v>2125233440.168664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1584060943433123</v>
+        <v>0.1624964916254904</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0214915854647722</v>
+        <v>0.02004251810952223</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>702820054.5573885</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3902781856.477046</v>
+        <v>3827291814.585988</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09254296172156656</v>
+        <v>0.1183859011284737</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04009738015308921</v>
+        <v>0.03777114197583392</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>77</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1951390900.909188</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1406753162.227975</v>
+        <v>1438299186.025823</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1302272679390391</v>
+        <v>0.1135140077272948</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03584131276235172</v>
+        <v>0.03891378193270446</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>703376599.0181583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4689844209.56364</v>
+        <v>3615112561.26467</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06729914736913249</v>
+        <v>0.08165623833413597</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03381475626520122</v>
+        <v>0.02602318949890377</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>46</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2344922138.559746</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3847643472.370058</v>
+        <v>3151007196.481818</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1286979933398961</v>
+        <v>0.1340049808297697</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02227542079498065</v>
+        <v>0.03228306571183791</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1923821693.739852</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4146021405.171602</v>
+        <v>5615378015.021953</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1661009044318489</v>
+        <v>0.1349500247627124</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02849693078969539</v>
+        <v>0.02153211105722462</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2073010734.177509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2418656821.077941</v>
+        <v>2043422782.17775</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1497805447554871</v>
+        <v>0.1368108611586059</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04187415560327638</v>
+        <v>0.03999041146414647</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1209328447.905401</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1734741096.799488</v>
+        <v>1829524966.537461</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1212079279456374</v>
+        <v>0.07792265281268003</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04800156037744129</v>
+        <v>0.0491508290887373</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>867370592.2279388</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2777114210.943654</v>
+        <v>2497369302.294204</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1689270262500379</v>
+        <v>0.1158043499017428</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04594252930960533</v>
+        <v>0.04222296144427386</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>84</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1388557140.993107</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2176862441.862465</v>
+        <v>1851096271.726278</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1607466311260534</v>
+        <v>0.1241355276055018</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01886456958627477</v>
+        <v>0.02199151686488948</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1088431273.133571</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1506506856.162863</v>
+        <v>956399375.3620967</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1563024948142877</v>
+        <v>0.1553303329620967</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03678379856865854</v>
+        <v>0.04108568429464765</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>753253562.2109112</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2611060880.509041</v>
+        <v>2634687700.277842</v>
       </c>
       <c r="F88" t="n">
-        <v>0.151501348424206</v>
+        <v>0.1148332162496605</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03301294252051577</v>
+        <v>0.02525022036579441</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>87</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1305530432.250018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2183937311.855561</v>
+        <v>2523648988.528317</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1518410899484149</v>
+        <v>0.1046262087658141</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0378407818086423</v>
+        <v>0.03637374778333621</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1091968753.830063</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2067696862.377618</v>
+        <v>1643295581.427319</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1064771781879773</v>
+        <v>0.1165921102203963</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03403308896644533</v>
+        <v>0.03637910683036246</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1033848513.841626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1991425446.042563</v>
+        <v>1378131132.236401</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1599713271102386</v>
+        <v>0.1456925220962931</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06117417693968704</v>
+        <v>0.05679639355031969</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>995712696.4117074</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2046189904.417921</v>
+        <v>2963915964.179989</v>
       </c>
       <c r="F92" t="n">
-        <v>0.107443140186516</v>
+        <v>0.1050456608115618</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04124862495885916</v>
+        <v>0.03037642646310286</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>57</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1023094901.853947</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3868859500.138313</v>
+        <v>4761650416.514676</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08841087023098723</v>
+        <v>0.1218561902305435</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04667144383397647</v>
+        <v>0.0343106517440364</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1934429759.151503</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2139513284.840999</v>
+        <v>2464986419.723682</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1688789719065622</v>
+        <v>0.1511554010809814</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04060300169685099</v>
+        <v>0.03400320320540556</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1069756658.905911</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2545881120.740663</v>
+        <v>2277579632.574673</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08339634017120071</v>
+        <v>0.08329417681877911</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04738054381207132</v>
+        <v>0.03726799343532135</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1272940593.099361</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2169686183.889776</v>
+        <v>1860490646.56059</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1248945095536789</v>
+        <v>0.1353425563089629</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03401282537845431</v>
+        <v>0.03576834583302352</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1084843060.787826</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3445495094.681092</v>
+        <v>3905610409.583743</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1718054132311266</v>
+        <v>0.1607119762910726</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02865908372070601</v>
+        <v>0.01763621858733674</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1722747559.108206</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3868209950.238766</v>
+        <v>2798618927.907218</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09122660255827737</v>
+        <v>0.1221835770564899</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02953794095484517</v>
+        <v>0.03080611317416507</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>59</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1934105018.675102</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2358752115.554854</v>
+        <v>2788579280.648015</v>
       </c>
       <c r="F99" t="n">
-        <v>0.112285925275942</v>
+        <v>0.1157386965761952</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02142071452942123</v>
+        <v>0.0305551780978116</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>70</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1179375997.296448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3700581627.415793</v>
+        <v>3103396465.647609</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1527888765759454</v>
+        <v>0.1651486303612686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02760685831795219</v>
+        <v>0.02254809077400153</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1850290860.469341</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2634457634.78545</v>
+        <v>2225656889.424512</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1349614032551897</v>
+        <v>0.1906004613358782</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05434582476107656</v>
+        <v>0.05269069069093145</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>91</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1317228858.114263</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_222.xlsx
+++ b/output/fit_clients/fit_round_222.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1719002754.630135</v>
+        <v>1735327969.592964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07489728943543476</v>
+        <v>0.09482870518755232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04053818512984154</v>
+        <v>0.04430828117222983</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1660619380.903602</v>
+        <v>1842741976.950388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1419150993719305</v>
+        <v>0.1572502032100806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04039615891675672</v>
+        <v>0.03794993448466781</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4762350490.11783</v>
+        <v>4687902689.365757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1265854632343864</v>
+        <v>0.1342553107951792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03116004821049263</v>
+        <v>0.03537368890080943</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3078072565.043545</v>
+        <v>3183449543.884234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.102709647159868</v>
+        <v>0.07473393617431104</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03928945861042426</v>
+        <v>0.04140232339141144</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2541073728.044096</v>
+        <v>2787456794.414897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1228808491774468</v>
+        <v>0.1348369302951624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03506891803195406</v>
+        <v>0.04908970764602319</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2778050565.156637</v>
+        <v>2233918186.337575</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08815674261956009</v>
+        <v>0.09231562569099563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0389785061492979</v>
+        <v>0.03281800358596258</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3781444732.655126</v>
+        <v>2858366141.901279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1694113361982387</v>
+        <v>0.1369472184401374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03305250553367894</v>
+        <v>0.02684355381716951</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1626564180.134494</v>
+        <v>1784436901.528946</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1628971530712316</v>
+        <v>0.1984935334473859</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03662527906594863</v>
+        <v>0.02319627984931467</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5565494481.520192</v>
+        <v>4854993923.132835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1783540991331767</v>
+        <v>0.1777489367045843</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04015601747379367</v>
+        <v>0.0410206142242435</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3090436977.040678</v>
+        <v>2784664902.548601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1676604329239679</v>
+        <v>0.1231976470410448</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04715021507162024</v>
+        <v>0.03966821421053838</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2510185339.575638</v>
+        <v>2211138401.130867</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1825776528364281</v>
+        <v>0.1847758988253664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04553838616384314</v>
+        <v>0.05039174021474701</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4799349426.923611</v>
+        <v>4631960737.474787</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0640855062804019</v>
+        <v>0.06695453909155885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0222140233751884</v>
+        <v>0.02205156988814956</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3699633281.287049</v>
+        <v>3603456371.31927</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1164343217831805</v>
+        <v>0.1765161357075282</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03787565945609013</v>
+        <v>0.02939343170640774</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1397977694.595258</v>
+        <v>1228882951.904248</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08648972522994164</v>
+        <v>0.09893146398669324</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03815192705738839</v>
+        <v>0.04920501921622694</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2436158391.387573</v>
+        <v>2038644613.914001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1015483847339552</v>
+        <v>0.08893184404931774</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04062947103253335</v>
+        <v>0.0445654334397453</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3378769200.785226</v>
+        <v>4877631217.441381</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1538653244926887</v>
+        <v>0.1441131250841852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04868684942342996</v>
+        <v>0.0522706620761683</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3020362746.210083</v>
+        <v>2865900849.0849</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1262556375305313</v>
+        <v>0.1251235979464315</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02993230417479573</v>
+        <v>0.02217122590658461</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1057982373.995819</v>
+        <v>1200683822.276324</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1618685434204561</v>
+        <v>0.1675691579076369</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02425335510976448</v>
+        <v>0.01989605209524582</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1823648843.350995</v>
+        <v>2435902130.561969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1080599114810795</v>
+        <v>0.1112317239929838</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03050748568509879</v>
+        <v>0.02640466672994667</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1707823552.10817</v>
+        <v>2394672892.143408</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09850074858068127</v>
+        <v>0.07747039338987412</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03459040787237373</v>
+        <v>0.03212779771824327</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3064584546.762911</v>
+        <v>3296717478.187149</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305519437653469</v>
+        <v>0.1330567002641438</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05610996794013316</v>
+        <v>0.05098881492358268</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>946000916.4411952</v>
+        <v>1159044578.465575</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1855538098120333</v>
+        <v>0.1188735993725873</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03829941364498924</v>
+        <v>0.03507760057367838</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3335774082.039766</v>
+        <v>3863959108.824532</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1247302101920144</v>
+        <v>0.1094268193865044</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03306014311866238</v>
+        <v>0.02590171308101285</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1357172425.501885</v>
+        <v>1423445852.975985</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08252463687793078</v>
+        <v>0.07516351341380977</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02717643425868635</v>
+        <v>0.02967836347396196</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>971572243.2820323</v>
+        <v>1052252906.433106</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1108872144079571</v>
+        <v>0.09939835065016801</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03639542146866451</v>
+        <v>0.0273398112413909</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4537389355.836899</v>
+        <v>3048866068.14987</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1578829651248158</v>
+        <v>0.1032995476684377</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02413941651378514</v>
+        <v>0.02188689928937467</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2414278251.643034</v>
+        <v>3605964241.565438</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1258084501906769</v>
+        <v>0.1449996539727044</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04187580839459876</v>
+        <v>0.04006977961827635</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3725342770.476201</v>
+        <v>5279190667.205184</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0931347932093608</v>
+        <v>0.1038819189259576</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03412910503673473</v>
+        <v>0.03581275332596217</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2145537267.698172</v>
+        <v>1570586564.896724</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1078202595609593</v>
+        <v>0.1008210565777534</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03432627692736692</v>
+        <v>0.02742714371743041</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>980426189.597361</v>
+        <v>1080204213.70617</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07172505615805985</v>
+        <v>0.07731254526431189</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03515587397000737</v>
+        <v>0.04057886827141179</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1155747781.477097</v>
+        <v>1232444045.824947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1050949579138212</v>
+        <v>0.1182030614443268</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02587058409867119</v>
+        <v>0.03614160349640461</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2697081052.504686</v>
+        <v>2408593205.667148</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1432683370506347</v>
+        <v>0.1653716295370545</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0608094721391461</v>
+        <v>0.05046617642514237</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1362405039.856229</v>
+        <v>1082534457.56264</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07875619489188161</v>
+        <v>0.1212061229942257</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01955758696644118</v>
+        <v>0.02774652941441444</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1060792324.401987</v>
+        <v>1352629755.417486</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1184158515097494</v>
+        <v>0.1184975158504481</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04448061386872359</v>
+        <v>0.0440780271487446</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1975378813.475591</v>
+        <v>2801202503.073714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1100868467768057</v>
+        <v>0.1546726859338012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0284049237106481</v>
+        <v>0.02689360823195767</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2554816283.464657</v>
+        <v>2087442133.284776</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09105490129980376</v>
+        <v>0.1000893056630963</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03762155675890493</v>
+        <v>0.03109267235803886</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1811148222.094872</v>
+        <v>1601944683.866504</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07545868937600969</v>
+        <v>0.1185401477926181</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03336399316478556</v>
+        <v>0.0343073938825121</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1894447786.176404</v>
+        <v>1366944592.424659</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1170304109052654</v>
+        <v>0.167865482911516</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02974567143144541</v>
+        <v>0.02482402487255441</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1652299320.034368</v>
+        <v>1446485524.260195</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09979852971354554</v>
+        <v>0.1059241090674957</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05418683992771197</v>
+        <v>0.04718250433797887</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1982223540.664475</v>
+        <v>2254035414.950834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1596547752841787</v>
+        <v>0.1509036361541498</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02859037813962535</v>
+        <v>0.03699347001408095</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3174074898.329703</v>
+        <v>3930386038.502035</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08831956741021872</v>
+        <v>0.08191834020654035</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03496688918120121</v>
+        <v>0.04570744700132447</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2109164488.461694</v>
+        <v>2388991100.797629</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1884991888568781</v>
+        <v>0.143831672105994</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01759410379039415</v>
+        <v>0.01848478700383986</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1492584117.122276</v>
+        <v>1601789005.260502</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06853983856337105</v>
+        <v>0.07083316259183768</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02516714641684737</v>
+        <v>0.03322904688508763</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1620809502.775025</v>
+        <v>2460994875.957617</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1325759468116096</v>
+        <v>0.1552236381286505</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04210229249970631</v>
+        <v>0.0348893830965061</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3973122141.609851</v>
+        <v>3801924333.829874</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1668998682990323</v>
+        <v>0.14482155060634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03999233707642652</v>
+        <v>0.05955714691133775</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5089677406.481889</v>
+        <v>3367453497.368341</v>
       </c>
       <c r="F47" t="n">
-        <v>0.157497691207132</v>
+        <v>0.1518345675069809</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04060315537442409</v>
+        <v>0.05966426570015838</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3896044243.425985</v>
+        <v>3573679334.695167</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0995153022726616</v>
+        <v>0.1037098896300144</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02963639801228992</v>
+        <v>0.02941606451294144</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1824800515.04886</v>
+        <v>1472885109.77762</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1869199361897889</v>
+        <v>0.1213127447116731</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02959954338557819</v>
+        <v>0.0372976699565357</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2551390615.730762</v>
+        <v>4224002224.575923</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1090229527007187</v>
+        <v>0.1207651102153562</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05255534165447551</v>
+        <v>0.04608137107792689</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1394114642.103794</v>
+        <v>1029166383.588558</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1750808342348203</v>
+        <v>0.1572826393649514</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04133793854487303</v>
+        <v>0.0486100125181218</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4373702179.879832</v>
+        <v>3996714364.554228</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09646858261168592</v>
+        <v>0.1387488984569737</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03922699044281619</v>
+        <v>0.05233155018341953</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3749978868.076078</v>
+        <v>2729323386.960379</v>
       </c>
       <c r="F53" t="n">
-        <v>0.176558849321625</v>
+        <v>0.199539419548219</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03468581311501397</v>
+        <v>0.03291629558210577</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4049616169.651659</v>
+        <v>4803416595.693575</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1085783476843451</v>
+        <v>0.1409693647470985</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03866366013689834</v>
+        <v>0.03751297293897665</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3558082537.013357</v>
+        <v>3617825004.627914</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2111373071457462</v>
+        <v>0.2147520902862294</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02263621660405226</v>
+        <v>0.03037006961156141</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1695666232.321631</v>
+        <v>1208658562.486744</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1516102077086815</v>
+        <v>0.102326506916583</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04211861168971123</v>
+        <v>0.04818769502950162</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4386773720.070679</v>
+        <v>4117656267.904322</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1192456151851876</v>
+        <v>0.1820640279417707</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02386489763187905</v>
+        <v>0.02516695891857107</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1866408566.847305</v>
+        <v>1595700950.595553</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1951094450104899</v>
+        <v>0.1306551512373874</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03423696910412232</v>
+        <v>0.02700425133659236</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5141401916.997345</v>
+        <v>4475643590.016459</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09035715936709354</v>
+        <v>0.0850275363922243</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04207254068147789</v>
+        <v>0.0483266968172695</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2630526861.686495</v>
+        <v>2527592772.516044</v>
       </c>
       <c r="F60" t="n">
-        <v>0.136993800227639</v>
+        <v>0.1473695230094045</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0263117875608724</v>
+        <v>0.02253790379051926</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3257877732.930935</v>
+        <v>2988346910.573851</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1345053386709039</v>
+        <v>0.1580984927019199</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02460509929328482</v>
+        <v>0.02203487444882372</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1604631845.486513</v>
+        <v>1493873915.922216</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1210325044093712</v>
+        <v>0.127172984097892</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03581153572202404</v>
+        <v>0.03859472381516653</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3457794380.486249</v>
+        <v>3396938050.118539</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09545716425277868</v>
+        <v>0.07607420665535539</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03510202904438545</v>
+        <v>0.03968035327113893</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5278399506.523028</v>
+        <v>4111507379.225528</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1649624978204403</v>
+        <v>0.1211500263318584</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03083032613135185</v>
+        <v>0.03539936423513568</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5120386818.181864</v>
+        <v>5198575668.051534</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1334329567007444</v>
+        <v>0.141661661507291</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02254296618318679</v>
+        <v>0.03158579245194298</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4629924529.493795</v>
+        <v>5217904298.211368</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1085789875391597</v>
+        <v>0.1377235893390497</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03198964243564275</v>
+        <v>0.03219521547926202</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3077799686.701159</v>
+        <v>3380968132.715333</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08148970172133226</v>
+        <v>0.08832047760570678</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04834433775847786</v>
+        <v>0.03686680638091061</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4844256682.63909</v>
+        <v>5982106855.419149</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1420426248119269</v>
+        <v>0.1001050822067248</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0507801863337266</v>
+        <v>0.04099381885312221</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2487108439.2797</v>
+        <v>2008211676.764996</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1683776035125005</v>
+        <v>0.1333130731572907</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03831353693164632</v>
+        <v>0.05652322858375758</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2930061885.213398</v>
+        <v>3101379702.725872</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07169282263103367</v>
+        <v>0.08315815899041533</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03715390499461976</v>
+        <v>0.03787457646034136</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3663296311.783171</v>
+        <v>5060556030.209721</v>
       </c>
       <c r="F71" t="n">
-        <v>0.148696956360928</v>
+        <v>0.1364437797865012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02592485603596685</v>
+        <v>0.02406938392472755</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1666788983.133503</v>
+        <v>1463691124.312544</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06840966757977503</v>
+        <v>0.08420065464729855</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05250729962712369</v>
+        <v>0.03464009699414165</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2212103266.621959</v>
+        <v>2707700206.440435</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09614844069940839</v>
+        <v>0.08918984641862561</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04210547578508578</v>
+        <v>0.0475000665394693</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3890726975.284339</v>
+        <v>2776977436.252251</v>
       </c>
       <c r="F74" t="n">
-        <v>0.137560729926</v>
+        <v>0.1460629450536263</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0311878432621456</v>
+        <v>0.03339424345192205</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2302238711.717641</v>
+        <v>2055943565.807695</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1036927201726727</v>
+        <v>0.1591414323763251</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02960265835372696</v>
+        <v>0.03430007975587993</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3243925647.914004</v>
+        <v>4821924729.289433</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09770431175612045</v>
+        <v>0.0951912122317206</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03272949586546856</v>
+        <v>0.02625680161685419</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2125233440.168664</v>
+        <v>1948854246.520167</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1624964916254904</v>
+        <v>0.1272332267598497</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02004251810952223</v>
+        <v>0.02159369985200811</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3827291814.585988</v>
+        <v>4443935317.972631</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1183859011284737</v>
+        <v>0.09379862094871134</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03777114197583392</v>
+        <v>0.04714123683083413</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1438299186.025823</v>
+        <v>1677412394.282984</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1135140077272948</v>
+        <v>0.161948194144369</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03891378193270446</v>
+        <v>0.02770458123196889</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3615112561.26467</v>
+        <v>4052048428.852381</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08165623833413597</v>
+        <v>0.07541782255491801</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02602318949890377</v>
+        <v>0.03528455660432736</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3151007196.481818</v>
+        <v>3825484585.140567</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1340049808297697</v>
+        <v>0.1264023220295782</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03228306571183791</v>
+        <v>0.02798129538992143</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5615378015.021953</v>
+        <v>4299794807.314178</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1349500247627124</v>
+        <v>0.1449765184408925</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02153211105722462</v>
+        <v>0.02035730969367549</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2043422782.17775</v>
+        <v>1670011309.527214</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1368108611586059</v>
+        <v>0.1013028363924203</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03999041146414647</v>
+        <v>0.04260417500236786</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1829524966.537461</v>
+        <v>1858969288.5667</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07792265281268003</v>
+        <v>0.0990085134564167</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0491508290887373</v>
+        <v>0.03711507560478787</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2497369302.294204</v>
+        <v>3235956139.284404</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1158043499017428</v>
+        <v>0.1679323214760674</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04222296144427386</v>
+        <v>0.03709988317612811</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1851096271.726278</v>
+        <v>1700602744.239094</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1241355276055018</v>
+        <v>0.1279508050413263</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02199151686488948</v>
+        <v>0.01695489636149536</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>956399375.3620967</v>
+        <v>1276095070.630671</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1553303329620967</v>
+        <v>0.1526551328870486</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04108568429464765</v>
+        <v>0.04363115968121341</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2634687700.277842</v>
+        <v>2818351462.306913</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1148332162496605</v>
+        <v>0.1403569510872305</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02525022036579441</v>
+        <v>0.02947539614385617</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2523648988.528317</v>
+        <v>2269009269.942887</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1046262087658141</v>
+        <v>0.1379217102944532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03637374778333621</v>
+        <v>0.0411619032670095</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1643295581.427319</v>
+        <v>1641398753.03164</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165921102203963</v>
+        <v>0.09748671937784326</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03637910683036246</v>
+        <v>0.05505225671854259</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1378131132.236401</v>
+        <v>1954836463.083743</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1456925220962931</v>
+        <v>0.1925165957418322</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05679639355031969</v>
+        <v>0.03797183130144945</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2963915964.179989</v>
+        <v>2217865422.876947</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1050456608115618</v>
+        <v>0.06775542633010967</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03037642646310286</v>
+        <v>0.03946476486493159</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4761650416.514676</v>
+        <v>3471590705.26116</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218561902305435</v>
+        <v>0.1042388348408838</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0343106517440364</v>
+        <v>0.03915572620224864</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2464986419.723682</v>
+        <v>2386151738.838226</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1511554010809814</v>
+        <v>0.139885005348613</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03400320320540556</v>
+        <v>0.0410025015268287</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2277579632.574673</v>
+        <v>2846144212.444495</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08329417681877911</v>
+        <v>0.1210156511764983</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03726799343532135</v>
+        <v>0.05246691420155564</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1860490646.56059</v>
+        <v>2112249592.077451</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1353425563089629</v>
+        <v>0.09252655837454127</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03576834583302352</v>
+        <v>0.03373307429115011</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3905610409.583743</v>
+        <v>3688367472.419585</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1607119762910726</v>
+        <v>0.1586022342921976</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01763621858733674</v>
+        <v>0.02137018248438022</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2798618927.907218</v>
+        <v>3297313516.759074</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1221835770564899</v>
+        <v>0.08197953570197229</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03080611317416507</v>
+        <v>0.02423611512368583</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2788579280.648015</v>
+        <v>2407963651.681851</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1157386965761952</v>
+        <v>0.1223259034806203</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0305551780978116</v>
+        <v>0.03419652495786565</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3103396465.647609</v>
+        <v>4765956192.601515</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1651486303612686</v>
+        <v>0.1316711145311901</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02254809077400153</v>
+        <v>0.01842067365236876</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2225656889.424512</v>
+        <v>2570179759.46443</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1906004613358782</v>
+        <v>0.2216682353856522</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05269069069093145</v>
+        <v>0.04839039845506019</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_222.xlsx
+++ b/output/fit_clients/fit_round_222.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1735327969.592964</v>
+        <v>2410061302.162078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09482870518755232</v>
+        <v>0.113947937895282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04430828117222983</v>
+        <v>0.03634268070806309</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1842741976.950388</v>
+        <v>2496953080.45647</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1572502032100806</v>
+        <v>0.1420143836772856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03794993448466781</v>
+        <v>0.03499447015891322</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4687902689.365757</v>
+        <v>5011269614.797158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1342553107951792</v>
+        <v>0.1484306458590407</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03537368890080943</v>
+        <v>0.03577922193616572</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>121</v>
+      </c>
+      <c r="J4" t="n">
+        <v>222</v>
+      </c>
+      <c r="K4" t="n">
+        <v>111.0458143632401</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3183449543.884234</v>
+        <v>3975741602.216233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07473393617431104</v>
+        <v>0.09521121087684273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04140232339141144</v>
+        <v>0.04888111802389423</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>222</v>
+      </c>
+      <c r="K5" t="n">
+        <v>129.8527717351279</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2787456794.414897</v>
+        <v>2103363744.160282</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1348369302951624</v>
+        <v>0.1208310064766757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04908970764602319</v>
+        <v>0.0514692166478893</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2233918186.337575</v>
+        <v>2964323787.224624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09231562569099563</v>
+        <v>0.0843284236609379</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03281800358596258</v>
+        <v>0.0351753988054798</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2858366141.901279</v>
+        <v>3629428500.252341</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1369472184401374</v>
+        <v>0.1547012080593995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02684355381716951</v>
+        <v>0.02430645586416159</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>62</v>
+      </c>
+      <c r="J8" t="n">
+        <v>221</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95.8611943530077</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1784436901.528946</v>
+        <v>1562750166.956922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1984935334473859</v>
+        <v>0.1272227382797051</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02319627984931467</v>
+        <v>0.02514740469250788</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4854993923.132835</v>
+        <v>3594432568.568343</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1777489367045843</v>
+        <v>0.1987950584365542</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0410206142242435</v>
+        <v>0.05077836924048851</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>203</v>
+      </c>
+      <c r="J10" t="n">
+        <v>221</v>
+      </c>
+      <c r="K10" t="n">
+        <v>97.0975449595729</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2784664902.548601</v>
+        <v>3217315888.331362</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1231976470410448</v>
+        <v>0.1836179515160341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03966821421053838</v>
+        <v>0.04866190744748908</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>219</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2211138401.130867</v>
+        <v>3268618469.795355</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1847758988253664</v>
+        <v>0.1726335661548973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05039174021474701</v>
+        <v>0.04756607015149492</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4631960737.474787</v>
+        <v>3523092616.682413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06695453909155885</v>
+        <v>0.08894310014576116</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02205156988814956</v>
+        <v>0.01911573982467592</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>112</v>
+      </c>
+      <c r="J13" t="n">
+        <v>221</v>
+      </c>
+      <c r="K13" t="n">
+        <v>90.1090201913976</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3603456371.31927</v>
+        <v>3611021865.569332</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1765161357075282</v>
+        <v>0.1255663014618431</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02939343170640774</v>
+        <v>0.03602864712835659</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1228882951.904248</v>
+        <v>1785769099.543273</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09893146398669324</v>
+        <v>0.08224719894998445</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04920501921622694</v>
+        <v>0.0360440736633544</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2038644613.914001</v>
+        <v>2727628736.504777</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08893184404931774</v>
+        <v>0.08266661001927665</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0445654334397453</v>
+        <v>0.04007237061920154</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4877631217.441381</v>
+        <v>5091070742.380043</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1441131250841852</v>
+        <v>0.1484396537123228</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0522706620761683</v>
+        <v>0.04197573006678493</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>107</v>
+      </c>
+      <c r="J17" t="n">
+        <v>221</v>
+      </c>
+      <c r="K17" t="n">
+        <v>104.0322818365796</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1073,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2865900849.0849</v>
+        <v>3090151241.894932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1251235979464315</v>
+        <v>0.1330595536940444</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02217122590658461</v>
+        <v>0.0208665140487053</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="n">
+        <v>68.76426679532322</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1104,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1200683822.276324</v>
+        <v>1051383127.753092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1675691579076369</v>
+        <v>0.1371317893569435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01989605209524582</v>
+        <v>0.02111018190855587</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1139,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2435902130.561969</v>
+        <v>1751608983.102066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1112317239929838</v>
+        <v>0.1485484091486284</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02640466672994667</v>
+        <v>0.02759894932181634</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1174,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2394672892.143408</v>
+        <v>1883120221.686566</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07747039338987412</v>
+        <v>0.06769653633428402</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03212779771824327</v>
+        <v>0.04528887680118387</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1209,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3296717478.187149</v>
+        <v>3836400585.333785</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1330567002641438</v>
+        <v>0.1183137394274917</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05098881492358268</v>
+        <v>0.04482981479763861</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>56</v>
+      </c>
+      <c r="J22" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1159044578.465575</v>
+        <v>1286604575.543104</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1188735993725873</v>
+        <v>0.126974825149177</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03507760057367838</v>
+        <v>0.03552526028108351</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3863959108.824532</v>
+        <v>3562444304.631119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1094268193865044</v>
+        <v>0.1462080206426509</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02590171308101285</v>
+        <v>0.02477859223150646</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1423445852.975985</v>
+        <v>1094901460.642932</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07516351341380977</v>
+        <v>0.07417055827251909</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02967836347396196</v>
+        <v>0.02275029721266372</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1052252906.433106</v>
+        <v>1387927442.584242</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09939835065016801</v>
+        <v>0.1178446628832847</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0273398112413909</v>
+        <v>0.03575316453584666</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3048866068.14987</v>
+        <v>4256070014.916924</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1032995476684377</v>
+        <v>0.1509816063785987</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02188689928937467</v>
+        <v>0.01651828681832507</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>88</v>
+      </c>
+      <c r="J27" t="n">
+        <v>222</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3605964241.565438</v>
+        <v>3731269004.503868</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1449996539727044</v>
+        <v>0.1287050332274983</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04006977961827635</v>
+        <v>0.03084740565170539</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>222</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5279190667.205184</v>
+        <v>4290403594.982955</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1038819189259576</v>
+        <v>0.112780500642935</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03581275332596217</v>
+        <v>0.04599713234497162</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>211</v>
+      </c>
+      <c r="J29" t="n">
+        <v>222</v>
+      </c>
+      <c r="K29" t="n">
+        <v>124.4817786738052</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1570586564.896724</v>
+        <v>1996555016.627308</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1008210565777534</v>
+        <v>0.1341977091364112</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02742714371743041</v>
+        <v>0.03709412112377929</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1080204213.70617</v>
+        <v>1033299293.561213</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07731254526431189</v>
+        <v>0.1029942693577344</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04057886827141179</v>
+        <v>0.04062544671515461</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1232444045.824947</v>
+        <v>1821760073.229961</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1182030614443268</v>
+        <v>0.1170085192343885</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03614160349640461</v>
+        <v>0.0309522712291845</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2408593205.667148</v>
+        <v>2212511017.873569</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1653716295370545</v>
+        <v>0.1618917724746197</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05046617642514237</v>
+        <v>0.03822868392766058</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1082534457.56264</v>
+        <v>1267781086.442016</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1212061229942257</v>
+        <v>0.1173739062174988</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02774652941441444</v>
+        <v>0.0192116791611656</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1352629755.417486</v>
+        <v>1035518286.206361</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1184975158504481</v>
+        <v>0.1125957268730019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0440780271487446</v>
+        <v>0.03299826470512335</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2801202503.073714</v>
+        <v>3050576435.377787</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1546726859338012</v>
+        <v>0.1182123144108351</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02689360823195767</v>
+        <v>0.02852059124232593</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2087442133.284776</v>
+        <v>2507305775.199313</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1000893056630963</v>
+        <v>0.09592009321712291</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03109267235803886</v>
+        <v>0.0419312959920987</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1601944683.866504</v>
+        <v>2024111741.334385</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1185401477926181</v>
+        <v>0.1065271118213904</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0343073938825121</v>
+        <v>0.03049954197917577</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1366944592.424659</v>
+        <v>1538081585.840872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.167865482911516</v>
+        <v>0.1620752063719211</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02482402487255441</v>
+        <v>0.02783941235483827</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1446485524.260195</v>
+        <v>1273080929.170204</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1059241090674957</v>
+        <v>0.1285399604475816</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04718250433797887</v>
+        <v>0.05799643238961531</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2254035414.950834</v>
+        <v>2691308608.398432</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1509036361541498</v>
+        <v>0.1533312811250128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03699347001408095</v>
+        <v>0.03398596810766333</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3930386038.502035</v>
+        <v>4093352545.787846</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08191834020654035</v>
+        <v>0.1036079630660895</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04570744700132447</v>
+        <v>0.03518036659767966</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>88</v>
+      </c>
+      <c r="J42" t="n">
+        <v>222</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2388991100.797629</v>
+        <v>2462689616.848061</v>
       </c>
       <c r="F43" t="n">
-        <v>0.143831672105994</v>
+        <v>0.1356134839804778</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01848478700383986</v>
+        <v>0.02502189020811346</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1601789005.260502</v>
+        <v>1483738029.737734</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07083316259183768</v>
+        <v>0.07328930151364532</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03322904688508763</v>
+        <v>0.02700626387683554</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2460994875.957617</v>
+        <v>1919221620.296257</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1552236381286505</v>
+        <v>0.1810640127272365</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0348893830965061</v>
+        <v>0.05492771869019037</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3801924333.829874</v>
+        <v>4792845769.244373</v>
       </c>
       <c r="F46" t="n">
-        <v>0.14482155060634</v>
+        <v>0.1649979304915096</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05955714691133775</v>
+        <v>0.04177276632652027</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>127</v>
+      </c>
+      <c r="J46" t="n">
+        <v>222</v>
+      </c>
+      <c r="K46" t="n">
+        <v>113.7604650444129</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3367453497.368341</v>
+        <v>5172415956.34258</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1518345675069809</v>
+        <v>0.1230321589527055</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05966426570015838</v>
+        <v>0.04288475801883537</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>100</v>
+      </c>
+      <c r="J47" t="n">
+        <v>221</v>
+      </c>
+      <c r="K47" t="n">
+        <v>90.79254989503333</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3573679334.695167</v>
+        <v>2849902767.430256</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1037098896300144</v>
+        <v>0.09211342226785127</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02941606451294144</v>
+        <v>0.02453940938415374</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>109</v>
+      </c>
+      <c r="J48" t="n">
+        <v>219</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1472885109.77762</v>
+        <v>1913203859.282037</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1213127447116731</v>
+        <v>0.1319188556603263</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0372976699565357</v>
+        <v>0.03302407809712911</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4224002224.575923</v>
+        <v>2908153918.334968</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1207651102153562</v>
+        <v>0.1751568629320208</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04608137107792689</v>
+        <v>0.03882257181463131</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>72</v>
+      </c>
+      <c r="J50" t="n">
+        <v>221</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61.45734234748327</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1029166383.588558</v>
+        <v>1471893740.970124</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1572826393649514</v>
+        <v>0.16091645489582</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0486100125181218</v>
+        <v>0.04392560962174404</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3996714364.554228</v>
+        <v>5003151171.606914</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1387488984569737</v>
+        <v>0.1144597076300344</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05233155018341953</v>
+        <v>0.052960870126924</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>148</v>
+      </c>
+      <c r="J52" t="n">
+        <v>222</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2302,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2729323386.960379</v>
+        <v>3237501074.950686</v>
       </c>
       <c r="F53" t="n">
-        <v>0.199539419548219</v>
+        <v>0.1294225928607707</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03291629558210577</v>
+        <v>0.03098925395942813</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="n">
+        <v>71.30887010773165</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4803416595.693575</v>
+        <v>4077561218.773937</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1409693647470985</v>
+        <v>0.1165575406742171</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03751297293897665</v>
+        <v>0.03924379043509792</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>118</v>
+      </c>
+      <c r="J54" t="n">
+        <v>222</v>
+      </c>
+      <c r="K54" t="n">
+        <v>113.7582635449798</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2382,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3617825004.627914</v>
+        <v>3966533780.312876</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2147520902862294</v>
+        <v>0.2227254974321456</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03037006961156141</v>
+        <v>0.03149096570042037</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>100</v>
+      </c>
+      <c r="J55" t="n">
+        <v>221</v>
+      </c>
+      <c r="K55" t="n">
+        <v>110.085615856518</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1208658562.486744</v>
+        <v>1225987732.201309</v>
       </c>
       <c r="F56" t="n">
-        <v>0.102326506916583</v>
+        <v>0.1211072755175325</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04818769502950162</v>
+        <v>0.05346714610504089</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4117656267.904322</v>
+        <v>4520800112.800127</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1820640279417707</v>
+        <v>0.1243503830220626</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02516695891857107</v>
+        <v>0.0253435423878403</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>86</v>
+      </c>
+      <c r="J57" t="n">
+        <v>222</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1595700950.595553</v>
+        <v>1192770506.468015</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1306551512373874</v>
+        <v>0.1461823314940722</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02700425133659236</v>
+        <v>0.03898479513994785</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4475643590.016459</v>
+        <v>4810140099.519834</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0850275363922243</v>
+        <v>0.08460653502582147</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0483266968172695</v>
+        <v>0.0464477921462059</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>107</v>
+      </c>
+      <c r="J59" t="n">
+        <v>222</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2527592772.516044</v>
+        <v>2416973322.505667</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1473695230094045</v>
+        <v>0.170536929927867</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02253790379051926</v>
+        <v>0.02298722945485128</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2988346910.573851</v>
+        <v>2409690663.802692</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1580984927019199</v>
+        <v>0.1725906654853413</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02203487444882372</v>
+        <v>0.02602355304213391</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2629,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1493873915.922216</v>
+        <v>1886995177.799825</v>
       </c>
       <c r="F62" t="n">
-        <v>0.127172984097892</v>
+        <v>0.1702351014806696</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03859472381516653</v>
+        <v>0.03780425109066179</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2664,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3396938050.118539</v>
+        <v>4191742421.934825</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07607420665535539</v>
+        <v>0.09712530286237189</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03968035327113893</v>
+        <v>0.03097381748368162</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>108</v>
+      </c>
+      <c r="J63" t="n">
+        <v>221</v>
+      </c>
+      <c r="K63" t="n">
+        <v>106.2176896012185</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2701,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4111507379.225528</v>
+        <v>5081848297.275354</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1211500263318584</v>
+        <v>0.1290465683814196</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03539936423513568</v>
+        <v>0.03049005738034443</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>109</v>
+      </c>
+      <c r="J64" t="n">
+        <v>222</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5198575668.051534</v>
+        <v>4085306462.322207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.141661661507291</v>
+        <v>0.1376660226522324</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03158579245194298</v>
+        <v>0.02454786464065683</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>175</v>
+      </c>
+      <c r="J65" t="n">
+        <v>222</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5217904298.211368</v>
+        <v>3708622100.874757</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1377235893390497</v>
+        <v>0.1612292849703758</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03219521547926202</v>
+        <v>0.03117034279160606</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>109</v>
+      </c>
+      <c r="J66" t="n">
+        <v>222</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3380968132.715333</v>
+        <v>2434913635.589555</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08832047760570678</v>
+        <v>0.07963019347770085</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03686680638091061</v>
+        <v>0.05015796426103054</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5982106855.419149</v>
+        <v>5709120848.020039</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1001050822067248</v>
+        <v>0.1109116413361274</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04099381885312221</v>
+        <v>0.03998198625028843</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>112</v>
+      </c>
+      <c r="J68" t="n">
+        <v>221</v>
+      </c>
+      <c r="K68" t="n">
+        <v>110.600397070349</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2008211676.764996</v>
+        <v>1696180146.151412</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1333130731572907</v>
+        <v>0.1756200331168622</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05652322858375758</v>
+        <v>0.05300172294609487</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3101379702.725872</v>
+        <v>3698389935.376539</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08315815899041533</v>
+        <v>0.08629540631135946</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03787457646034136</v>
+        <v>0.04094820341427149</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5060556030.209721</v>
+        <v>3829983970.101132</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1364437797865012</v>
+        <v>0.1514862883877786</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02406938392472755</v>
+        <v>0.03087945352883871</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>170</v>
+      </c>
+      <c r="J71" t="n">
+        <v>221</v>
+      </c>
+      <c r="K71" t="n">
+        <v>105.2273545819331</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1463691124.312544</v>
+        <v>1451296283.443594</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08420065464729855</v>
+        <v>0.08173323448869307</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03464009699414165</v>
+        <v>0.04177094993888451</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2707700206.440435</v>
+        <v>3321764989.690589</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08918984641862561</v>
+        <v>0.108968009248305</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0475000665394693</v>
+        <v>0.04705125935074624</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2776977436.252251</v>
+        <v>2860036011.307036</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1460629450536263</v>
+        <v>0.1629371669330987</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03339424345192205</v>
+        <v>0.02141366965801478</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2055943565.807695</v>
+        <v>1654554571.982023</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1591414323763251</v>
+        <v>0.1412229155292759</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03430007975587993</v>
+        <v>0.03640437101699971</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4821924729.289433</v>
+        <v>4959417574.35766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0951912122317206</v>
+        <v>0.09398123433107401</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02625680161685419</v>
+        <v>0.03101379682022506</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>102</v>
+      </c>
+      <c r="J76" t="n">
+        <v>222</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1948854246.520167</v>
+        <v>2178654117.722366</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1272332267598497</v>
+        <v>0.174644771148664</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02159369985200811</v>
+        <v>0.02654116806200927</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4443935317.972631</v>
+        <v>3717286002.230934</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09379862094871134</v>
+        <v>0.08510288447619442</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04714123683083413</v>
+        <v>0.04959656069082521</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>111</v>
+      </c>
+      <c r="J78" t="n">
+        <v>222</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1677412394.282984</v>
+        <v>1484061169.827463</v>
       </c>
       <c r="F79" t="n">
-        <v>0.161948194144369</v>
+        <v>0.1382270856684013</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02770458123196889</v>
+        <v>0.03122727334023429</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4052048428.852381</v>
+        <v>3850148653.825996</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07541782255491801</v>
+        <v>0.07991184627066102</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03528455660432736</v>
+        <v>0.03542814619866096</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>108</v>
+      </c>
+      <c r="J80" t="n">
+        <v>221</v>
+      </c>
+      <c r="K80" t="n">
+        <v>78.53578576776248</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3825484585.140567</v>
+        <v>4915237832.154438</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1264023220295782</v>
+        <v>0.1191893212377546</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02798129538992143</v>
+        <v>0.02587785456082592</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>102</v>
+      </c>
+      <c r="J81" t="n">
+        <v>221</v>
+      </c>
+      <c r="K81" t="n">
+        <v>97.62936306314425</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4299794807.314178</v>
+        <v>4912001488.541556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1449765184408925</v>
+        <v>0.2022058332887615</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02035730969367549</v>
+        <v>0.02045971726408607</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>165</v>
+      </c>
+      <c r="J82" t="n">
+        <v>222</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1670011309.527214</v>
+        <v>2089631472.22979</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1013028363924203</v>
+        <v>0.1043868285269132</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04260417500236786</v>
+        <v>0.04397975228031963</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1858969288.5667</v>
+        <v>1627087980.260684</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0990085134564167</v>
+        <v>0.102554822912465</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03711507560478787</v>
+        <v>0.03326484987506892</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3235956139.284404</v>
+        <v>3490305792.545428</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1679323214760674</v>
+        <v>0.1721670374031492</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03709988317612811</v>
+        <v>0.05530103609766115</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1700602744.239094</v>
+        <v>2054081040.968089</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1279508050413263</v>
+        <v>0.1606355166828353</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01695489636149536</v>
+        <v>0.02364894604580945</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1276095070.630671</v>
+        <v>962739551.3506879</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1526551328870486</v>
+        <v>0.1595864081004536</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04363115968121341</v>
+        <v>0.0297236706574708</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2818351462.306913</v>
+        <v>2592829296.005655</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1403569510872305</v>
+        <v>0.1534345108108747</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02947539614385617</v>
+        <v>0.03495140129579471</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2269009269.942887</v>
+        <v>3175533842.299221</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1379217102944532</v>
+        <v>0.1295729908592455</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0411619032670095</v>
+        <v>0.03088376920966166</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>220</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1641398753.03164</v>
+        <v>1845087127.845876</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09748671937784326</v>
+        <v>0.1181454740956015</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05505225671854259</v>
+        <v>0.05142084484150616</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1954836463.083743</v>
+        <v>1767062215.391444</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1925165957418322</v>
+        <v>0.1844452058729183</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03797183130144945</v>
+        <v>0.04629202406785407</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2217865422.876947</v>
+        <v>1844334615.905188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06775542633010967</v>
+        <v>0.1032624083057642</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03946476486493159</v>
+        <v>0.03633644566058322</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3471590705.26116</v>
+        <v>4566086565.98475</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1042388348408838</v>
+        <v>0.09284385372038012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03915572620224864</v>
+        <v>0.05327802972350012</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>99</v>
+      </c>
+      <c r="J93" t="n">
+        <v>222</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2386151738.838226</v>
+        <v>2441009057.872253</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139885005348613</v>
+        <v>0.1408487938147493</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0410025015268287</v>
+        <v>0.04299340346534579</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2846144212.444495</v>
+        <v>2180364651.702085</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1210156511764983</v>
+        <v>0.1107625665564441</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05246691420155564</v>
+        <v>0.04817728891191685</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2112249592.077451</v>
+        <v>1629103231.78387</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09252655837454127</v>
+        <v>0.1081556506165399</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03373307429115011</v>
+        <v>0.03336993272725173</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3688367472.419585</v>
+        <v>4735374637.827564</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1586022342921976</v>
+        <v>0.1108238291654534</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02137018248438022</v>
+        <v>0.0226457296899475</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>107</v>
+      </c>
+      <c r="J97" t="n">
+        <v>222</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3297313516.759074</v>
+        <v>2611890761.708822</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08197953570197229</v>
+        <v>0.1277198212387393</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02423611512368583</v>
+        <v>0.02114079329361966</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2407963651.681851</v>
+        <v>2094649809.08327</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1223259034806203</v>
+        <v>0.1065469871224635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03419652495786565</v>
+        <v>0.02346473781085447</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4765956192.601515</v>
+        <v>3454031116.312376</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1316711145311901</v>
+        <v>0.1704242818425676</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01842067365236876</v>
+        <v>0.0213952443801516</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>93</v>
+      </c>
+      <c r="J100" t="n">
+        <v>221</v>
+      </c>
+      <c r="K100" t="n">
+        <v>82.61296695580921</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2570179759.46443</v>
+        <v>3135753345.009674</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2216682353856522</v>
+        <v>0.1543806102129156</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04839039845506019</v>
+        <v>0.03882790740667397</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
